--- a/DATOSHORARIOS.xlsx
+++ b/DATOSHORARIOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Documents\trabajos yorman\SEMESTRE 6\INNOVACION Y DESARROLLO\Generador-de-horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C9C530-B248-4D48-82AF-C785D6E616CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA20E9E-BD44-4248-BF3C-64188F1542D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos generales" sheetId="1" r:id="rId1"/>
@@ -2680,13 +2680,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -2696,6 +2689,13 @@
         <top style="thin">
           <color auto="1"/>
         </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -2740,7 +2740,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{597EE59D-3BEE-4229-BFB3-1EB05EFCDF94}" name="Tabla1" displayName="Tabla1" ref="A1:B6" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{597EE59D-3BEE-4229-BFB3-1EB05EFCDF94}" name="Tabla1" displayName="Tabla1" ref="A1:B6" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="A1:B6" xr:uid="{597EE59D-3BEE-4229-BFB3-1EB05EFCDF94}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B34F71D3-D255-4DC3-98FC-D5AF4CB2325E}" name="Restricción" dataDxfId="1"/>
@@ -3044,8 +3044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="78" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6509,8 +6509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:L143"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView tabSelected="1" topLeftCell="C112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
